--- a/data/Prematurity Jan 2024/Perinatal Deaths and cause by quarter.xlsx
+++ b/data/Prematurity Jan 2024/Perinatal Deaths and cause by quarter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Prematurity Jan 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4773FD4F-5133-467A-9606-40D94C0CE51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805EA18D-00EC-4CB1-ACBB-92FBB77AB214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27098FDA-9E6B-4CC7-BBFC-C52454E41C21}"/>
   </bookViews>
@@ -59,19 +59,19 @@
     <t>Others</t>
   </si>
   <si>
-    <t>Qtr 1 2019</t>
-  </si>
-  <si>
-    <t>Qtr 1 2020</t>
-  </si>
-  <si>
-    <t>Qtr 1 2021</t>
-  </si>
-  <si>
-    <t>Qtr 1 2022</t>
-  </si>
-  <si>
-    <t>Qtr 1 2023</t>
+    <t>Qtr 4 2019</t>
+  </si>
+  <si>
+    <t>Qtr 4 2020</t>
+  </si>
+  <si>
+    <t>Qtr 4 2021</t>
+  </si>
+  <si>
+    <t>Qtr 4 2022</t>
+  </si>
+  <si>
+    <t>Qtr 4 2023</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
@@ -540,22 +540,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>447</v>
+        <v>528</v>
       </c>
       <c r="C2">
-        <v>313</v>
+        <v>422</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="E2">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
@@ -563,22 +563,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="C3">
-        <v>446</v>
+        <v>357</v>
       </c>
       <c r="D3">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
@@ -586,22 +586,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="C4">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="D4">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E4">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
@@ -609,19 +609,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="C5">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="D5">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="E5">
-        <v>78</v>
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
@@ -629,22 +632,19 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>451</v>
+        <v>362</v>
       </c>
       <c r="C6">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="D6">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E6">
-        <v>89</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
